--- a/natmiOut/YoungD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H2">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>131.6380257967854</v>
+        <v>3600.565025609739</v>
       </c>
       <c r="R2">
-        <v>131.6380257967854</v>
+        <v>32405.08523048765</v>
       </c>
       <c r="S2">
-        <v>0.006022315131261455</v>
+        <v>0.1061440262577096</v>
       </c>
       <c r="T2">
-        <v>0.006022315131261455</v>
+        <v>0.1061440262577096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H3">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I3">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J3">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>95.95468270359135</v>
+        <v>2147.122808401872</v>
       </c>
       <c r="R3">
-        <v>95.95468270359135</v>
+        <v>19324.10527561685</v>
       </c>
       <c r="S3">
-        <v>0.004389835946440801</v>
+        <v>0.06329680428836053</v>
       </c>
       <c r="T3">
-        <v>0.004389835946440801</v>
+        <v>0.06329680428836053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H4">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I4">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J4">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>96.83271527406029</v>
+        <v>2238.240589703888</v>
       </c>
       <c r="R4">
-        <v>96.83271527406029</v>
+        <v>20144.16530733499</v>
       </c>
       <c r="S4">
-        <v>0.004430005105791751</v>
+        <v>0.06598294052038917</v>
       </c>
       <c r="T4">
-        <v>0.004430005105791751</v>
+        <v>0.06598294052038915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H5">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I5">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J5">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>33.97046711547484</v>
+        <v>775.9961139871735</v>
       </c>
       <c r="R5">
-        <v>33.97046711547484</v>
+        <v>6983.96502588456</v>
       </c>
       <c r="S5">
-        <v>0.001554116729472706</v>
+        <v>0.02287622951205738</v>
       </c>
       <c r="T5">
-        <v>0.001554116729472706</v>
+        <v>0.02287622951205737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H6">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J6">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>5364.098543878211</v>
+        <v>7007.83936973998</v>
       </c>
       <c r="R6">
-        <v>5364.098543878211</v>
+        <v>63070.55432765982</v>
       </c>
       <c r="S6">
-        <v>0.2454024331559382</v>
+        <v>0.2065898770833962</v>
       </c>
       <c r="T6">
-        <v>0.2454024331559382</v>
+        <v>0.2065898770833962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H7">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J7">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>3910.04324664674</v>
+        <v>4178.980699241009</v>
       </c>
       <c r="R7">
-        <v>3910.04324664674</v>
+        <v>37610.82629316908</v>
       </c>
       <c r="S7">
-        <v>0.1788807790578576</v>
+        <v>0.1231956189974883</v>
       </c>
       <c r="T7">
-        <v>0.1788807790578576</v>
+        <v>0.1231956189974883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H8">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J8">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>3945.822066666427</v>
+        <v>4356.324746786295</v>
       </c>
       <c r="R8">
-        <v>3945.822066666427</v>
+        <v>39206.92272107665</v>
       </c>
       <c r="S8">
-        <v>0.1805176262217301</v>
+        <v>0.1284236904544418</v>
       </c>
       <c r="T8">
-        <v>0.1805176262217301</v>
+        <v>0.1284236904544418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H9">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J9">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N9">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q9">
-        <v>1384.25756604921</v>
+        <v>1510.334094700494</v>
       </c>
       <c r="R9">
-        <v>1384.25756604921</v>
+        <v>13593.00685230445</v>
       </c>
       <c r="S9">
-        <v>0.06332847393541575</v>
+        <v>0.04452438455229816</v>
       </c>
       <c r="T9">
-        <v>0.06332847393541575</v>
+        <v>0.04452438455229814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H10">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I10">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J10">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N10">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q10">
-        <v>2508.044583776154</v>
+        <v>3300.600517003555</v>
       </c>
       <c r="R10">
-        <v>2508.044583776154</v>
+        <v>29705.40465303199</v>
       </c>
       <c r="S10">
-        <v>0.1147406667285519</v>
+        <v>0.09730112508764006</v>
       </c>
       <c r="T10">
-        <v>0.1147406667285519</v>
+        <v>0.09730112508764004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H11">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I11">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J11">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N11">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q11">
-        <v>1828.184681333762</v>
+        <v>1968.245150712485</v>
       </c>
       <c r="R11">
-        <v>1828.184681333762</v>
+        <v>17714.20635641237</v>
       </c>
       <c r="S11">
-        <v>0.08363771943931401</v>
+        <v>0.05802352227299558</v>
       </c>
       <c r="T11">
-        <v>0.08363771943931401</v>
+        <v>0.05802352227299557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H12">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I12">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J12">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N12">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q12">
-        <v>1844.913470902084</v>
+        <v>2051.771873305899</v>
       </c>
       <c r="R12">
-        <v>1844.913470902084</v>
+        <v>18465.94685975309</v>
       </c>
       <c r="S12">
-        <v>0.08440304573416835</v>
+        <v>0.06048587542399146</v>
       </c>
       <c r="T12">
-        <v>0.08440304573416835</v>
+        <v>0.06048587542399144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H13">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I13">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J13">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N13">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q13">
-        <v>647.225188478884</v>
+        <v>711.3475681737141</v>
       </c>
       <c r="R13">
-        <v>647.225188478884</v>
+        <v>6402.128113563426</v>
       </c>
       <c r="S13">
-        <v>0.02960994000264865</v>
+        <v>0.0209704017057162</v>
       </c>
       <c r="T13">
-        <v>0.02960994000264865</v>
+        <v>0.02097040170571619</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H14">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I14">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J14">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N14">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q14">
-        <v>24.75231238800919</v>
+        <v>30.46476455545222</v>
       </c>
       <c r="R14">
-        <v>24.75231238800919</v>
+        <v>274.18288099907</v>
       </c>
       <c r="S14">
-        <v>0.001132394872421874</v>
+        <v>0.0008980959226979262</v>
       </c>
       <c r="T14">
-        <v>0.001132394872421874</v>
+        <v>0.0008980959226979261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H15">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I15">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J15">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N15">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q15">
-        <v>18.04266105477856</v>
+        <v>18.167034997105</v>
       </c>
       <c r="R15">
-        <v>18.04266105477856</v>
+        <v>163.503314973945</v>
       </c>
       <c r="S15">
-        <v>0.000825434672243984</v>
+        <v>0.0005355610094643102</v>
       </c>
       <c r="T15">
-        <v>0.000825434672243984</v>
+        <v>0.0005355610094643102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H16">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I16">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J16">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N16">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q16">
-        <v>18.2077602830566</v>
+        <v>18.93799225921166</v>
       </c>
       <c r="R16">
-        <v>18.2077602830566</v>
+        <v>170.441930332905</v>
       </c>
       <c r="S16">
-        <v>0.000832987805729542</v>
+        <v>0.0005582886945055669</v>
       </c>
       <c r="T16">
-        <v>0.000832987805729542</v>
+        <v>0.0005582886945055668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H17">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I17">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J17">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N17">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q17">
-        <v>6.38757387099435</v>
+        <v>6.565785853169445</v>
       </c>
       <c r="R17">
-        <v>6.38757387099435</v>
+        <v>59.092072678525</v>
       </c>
       <c r="S17">
-        <v>0.000292225461013249</v>
+        <v>0.0001935582168477281</v>
       </c>
       <c r="T17">
-        <v>0.000292225461013249</v>
+        <v>0.0001935582168477281</v>
       </c>
     </row>
   </sheetData>
